--- a/tt.xlsx
+++ b/tt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\PycharmProjects\cap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lanoon28/PycharmProjects/cap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD62B0A1-D62F-4A7D-9D9E-2E1A5FF97A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BBB230-B494-A64A-A7E6-1157E8521950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34110" windowHeight="11985" xr2:uid="{4DEE27FF-D85C-4256-B724-7CECA144A1D2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="11980" xr2:uid="{4DEE27FF-D85C-4256-B724-7CECA144A1D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>이 영화자체가 미나리같다. 그리고 이 영화에 나오는 인물들도 미나리같다. 특별하고 화려하진 않지만 강인하고  자꾸 머릿속에 이 가족의 현재와 미래가 궁금해지고 응원하게 된다.그들의 모습속에서 가장으로써의 모습, 어머...</t>
-  </si>
-  <si>
-    <t>부모님의 높아지는 언성에 숨어서 마음 졸였던 아이, 축축한 이불에 몰래 흔적을 지웠던 아침, 그저 풀 위를 달리고 싶었던 순수했던 마음, 그리고 그 때는 보이지 않았던 아버지의 삶의 무게까지. 잔잔하지만 재치있고, ...</t>
   </si>
   <si>
     <t>실망이 컸던 영화. 명성에 못 미침</t>
@@ -46,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,37 +1003,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B9E2B4-654A-4FF8-9310-F9FD6896EE7B}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
